--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H2">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N2">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O2">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P2">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q2">
-        <v>100.4786136741927</v>
+        <v>10.01612902181845</v>
       </c>
       <c r="R2">
-        <v>904.307523067734</v>
+        <v>90.145161196366</v>
       </c>
       <c r="S2">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="T2">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H3">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>3.189955</v>
       </c>
       <c r="O3">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P3">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q3">
-        <v>4.465896948342778</v>
+        <v>0.1720782236411111</v>
       </c>
       <c r="R3">
-        <v>40.193072535085</v>
+        <v>1.54870401277</v>
       </c>
       <c r="S3">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="T3">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H4">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N4">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O4">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P4">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q4">
-        <v>21.63247719271066</v>
+        <v>1.810941924612889</v>
       </c>
       <c r="R4">
-        <v>194.692294734396</v>
+        <v>16.298477321516</v>
       </c>
       <c r="S4">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="T4">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H5">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N5">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O5">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P5">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q5">
-        <v>143.9064523988127</v>
+        <v>12.06552909243533</v>
       </c>
       <c r="R5">
-        <v>1295.158071589315</v>
+        <v>108.589761831918</v>
       </c>
       <c r="S5">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="T5">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H6">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N6">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O6">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P6">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q6">
-        <v>24.12840560839</v>
+        <v>0.538910962844</v>
       </c>
       <c r="R6">
-        <v>217.15565047551</v>
+        <v>4.850198665595999</v>
       </c>
       <c r="S6">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="T6">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.199962333333333</v>
+        <v>0.1618313333333333</v>
       </c>
       <c r="H7">
-        <v>12.599887</v>
+        <v>0.485494</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N7">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q7">
-        <v>5.315281930774221</v>
+        <v>2.048750425701111</v>
       </c>
       <c r="R7">
-        <v>47.83753737696799</v>
+        <v>18.43875383131</v>
       </c>
       <c r="S7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="T7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
     </row>
   </sheetData>
